--- a/ADS/Comm diagram.xlsx
+++ b/ADS/Comm diagram.xlsx
@@ -575,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ADS/Comm diagram.xlsx
+++ b/ADS/Comm diagram.xlsx
@@ -246,10 +246,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="135"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -257,21 +272,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -576,7 +577,7 @@
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A20"/>
+      <selection activeCell="T20" sqref="A1:T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,584 +588,582 @@
     <col min="7" max="7" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="16" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="20" width="4.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
     </row>
     <row r="2" spans="1:20" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="4" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="S2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="T2" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9" t="s">
+      <c r="E5" s="4"/>
+      <c r="F5" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="9" t="s">
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="9" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7" t="s">
+      <c r="A8" s="8"/>
+      <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9" t="s">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="8"/>
+      <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="9" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="8"/>
+      <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="9" t="s">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="9" t="s">
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="8"/>
+      <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="9" t="s">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L11" s="8"/>
-      <c r="M11" s="9" t="s">
+      <c r="M11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7" t="s">
+      <c r="A12" s="8"/>
+      <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7" t="s">
+      <c r="A13" s="8"/>
+      <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7" t="s">
+      <c r="A14" s="8"/>
+      <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="9" t="s">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="P14" s="9" t="s">
+      <c r="P14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7" t="s">
+      <c r="A15" s="8"/>
+      <c r="B15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7" t="s">
+      <c r="A16" s="8"/>
+      <c r="B16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="9" t="s">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="10" t="s">
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="9" t="s">
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7" t="s">
+      <c r="A17" s="8"/>
+      <c r="B17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="9" t="s">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="S17" s="8"/>
-      <c r="T17" s="9" t="s">
+      <c r="S17" s="4"/>
+      <c r="T17" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7" t="s">
+      <c r="A18" s="8"/>
+      <c r="B18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="9" t="s">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="9" t="s">
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="T18" s="8"/>
+      <c r="T18" s="4"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7" t="s">
+      <c r="A19" s="8"/>
+      <c r="B19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="9" t="s">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7" t="s">
+      <c r="A20" s="8"/>
+      <c r="B20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="9" t="s">
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/ADS/Comm diagram.xlsx
+++ b/ADS/Comm diagram.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="48">
   <si>
     <t>Producer - Consumer relationship</t>
   </si>
@@ -72,9 +72,6 @@
     <t>DH (Storage)</t>
   </si>
   <si>
-    <t>Initialization (Storage)</t>
-  </si>
-  <si>
     <t>Physical Storage (Storage)</t>
   </si>
   <si>
@@ -144,13 +141,25 @@
     <t>PR 1</t>
   </si>
   <si>
-    <t>GU 2</t>
-  </si>
-  <si>
-    <t>GU 3</t>
-  </si>
-  <si>
     <t>GU 6</t>
+  </si>
+  <si>
+    <t>File Storage (GUI)</t>
+  </si>
+  <si>
+    <t>GU8</t>
+  </si>
+  <si>
+    <t>Net Comm (Input)</t>
+  </si>
+  <si>
+    <t>GU 2/3</t>
+  </si>
+  <si>
+    <t>IN 5</t>
+  </si>
+  <si>
+    <t>OU 4</t>
   </si>
 </sst>
 </file>
@@ -246,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
@@ -269,10 +278,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -574,26 +579,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T20" sqref="A1:T20"/>
+      <selection sqref="A1:U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.42578125" customWidth="1"/>
     <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -601,25 +611,26 @@
       <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-    </row>
-    <row r="2" spans="1:20" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+    </row>
+    <row r="2" spans="1:21" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="1" t="s">
@@ -635,58 +646,61 @@
         <v>2</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -704,23 +718,26 @@
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U3" s="4"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -734,20 +751,19 @@
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U4" s="4"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="5" t="s">
-        <v>42</v>
-      </c>
+      <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -762,26 +778,27 @@
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U5" s="4"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
+      <c r="L6" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
@@ -790,22 +807,23 @@
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U6" s="4"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="3" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="D7" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
@@ -816,23 +834,24 @@
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U7" s="4"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+      <c r="K8" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
@@ -842,22 +861,23 @@
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U8" s="4"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="H9" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="I9" s="4"/>
-      <c r="J9" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
@@ -868,11 +888,12 @@
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U9" s="4"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -880,27 +901,26 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
+      <c r="K10" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
-      <c r="P10" s="5" t="s">
-        <v>41</v>
-      </c>
+      <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U10" s="4"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -909,38 +929,41 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="J11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
+      <c r="R11" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U11" s="4"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="3" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="5" t="s">
-        <v>30</v>
-      </c>
+      <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
+      <c r="K12" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
@@ -950,11 +973,12 @@
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U12" s="4"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -967,23 +991,32 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
+      <c r="N13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="U13" s="4"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="F14" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -992,21 +1025,18 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
-      <c r="O14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="P14" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U14" s="4"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -1026,11 +1056,12 @@
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U15" s="4"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1040,27 +1071,24 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
-      <c r="N16" s="6" t="s">
-        <v>35</v>
-      </c>
+      <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="5" t="s">
-        <v>33</v>
-      </c>
+      <c r="Q16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="R16" s="4"/>
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U16" s="4"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -1078,17 +1106,16 @@
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="S17" s="4"/>
-      <c r="T17" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -1100,23 +1127,26 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
+      <c r="M18" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
-      <c r="P18" s="5" t="s">
-        <v>38</v>
+      <c r="P18" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
-      <c r="S18" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="T18" s="4"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S18" s="4"/>
+      <c r="T18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="U18" s="4"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -1132,17 +1162,20 @@
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
-      <c r="Q19" s="5" t="s">
-        <v>39</v>
-      </c>
+      <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U19" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -1158,18 +1191,48 @@
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
-      <c r="Q20" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A3:A20"/>
-    <mergeCell ref="C1:T1"/>
+    <mergeCell ref="A3:A21"/>
+    <mergeCell ref="C1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
